--- a/medicine/Psychotrope/Taybeh_Brewing_Company/Taybeh_Brewing_Company.xlsx
+++ b/medicine/Psychotrope/Taybeh_Brewing_Company/Taybeh_Brewing_Company.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Taybeh Brewing Company (Entreprise brassicole de Taybeh) est une brasserie fondée en 1994 dans la ville de Taybeh, en Palestine (Cisjordanie), à environ 35 kilomètres de Jérusalem.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie a été fondée en 1994 par la famille Khoury, originaire de Taybeh. L'investissement initial se monte à 1,2 million de dollars, investis par la famille car les banques se refusaient à consentir un prêt. Elle a beaucoup souffert pendant la seconde intifada (2000 à 2005), les articles de commerces palestiniens devant nécessairement passer par Israël pour l'exportation.
 La bière Taybeh beer vendue en Europe est brassée et mise en bouteille en Belgique, sous une licence allemande (ce qui signifie qu'elle respecte le décret sur la pureté de la bière, le Reinheitsgebot).
@@ -544,7 +558,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La brasserie produit actuellement cinq type de bières : 
 Golden (il s'agit de la première bière produite, la "Taybeh Golden Beer")
